--- a/data/trans_camb/IP19C03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C03-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,48</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,1</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,84</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-8,62</t>
+          <t>7,42</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 8,16</t>
+          <t>-3,46; 10,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 5,06</t>
+          <t>-3,27; 10,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,66; -0,88</t>
+          <t>-0,39; 15,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 5,08</t>
+          <t>-4,14; 11,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,3; -2,89</t>
+          <t>-2,36; 13,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,02; -4,89</t>
+          <t>-1,28; 16,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 4,47</t>
+          <t>-1,55; 9,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,71; -0,72</t>
+          <t>-0,92; 9,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,53; -4,36</t>
+          <t>1,54; 13,9</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>32,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,82%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-30,48%</t>
+          <t>59,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,25%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-35,61%</t>
+          <t>37,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-42,46%</t>
+          <t>58,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-21,44%</t>
+          <t>35,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-36,9%</t>
+          <t>58,99%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 46,51</t>
+          <t>-23,71; 143,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,81; 27,93</t>
+          <t>-23,44; 124,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,58; -3,43</t>
+          <t>-6,34; 177,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,61; 24,08</t>
+          <t>-25,01; 124,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,26; -13,27</t>
+          <t>-16,41; 138,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,11; -22,77</t>
+          <t>-11,14; 163,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 21,5</t>
+          <t>-10,32; 92,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,82; -3,34</t>
+          <t>-5,37; 101,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-49,83; -21,05</t>
+          <t>9,35; 141,27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>-6,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>-9,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>-10,84</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>-8,62</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 10,8</t>
+          <t>-4,96; 8,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 10,7</t>
+          <t>-7,66; 5,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 15,58</t>
+          <t>-12,66; -0,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 11,73</t>
+          <t>-8,48; 5,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 13,14</t>
+          <t>-15,3; -2,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 16,63</t>
+          <t>-17,02; -4,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 9,09</t>
+          <t>-5,06; 4,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 9,84</t>
+          <t>-9,71; -0,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 13,9</t>
+          <t>-12,53; -4,36</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>-4,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>59,9%</t>
+          <t>-30,48%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>-6,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>-35,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>58,6%</t>
+          <t>-42,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>-21,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>58,99%</t>
+          <t>-36,9%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,71; 143,44</t>
+          <t>-20,17; 46,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,44; 124,36</t>
+          <t>-30,81; 27,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 177,86</t>
+          <t>-50,58; -3,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,01; 124,51</t>
+          <t>-28,61; 24,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 138,13</t>
+          <t>-54,26; -13,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 163,07</t>
+          <t>-59,11; -22,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 92,96</t>
+          <t>-19,54; 21,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 101,48</t>
+          <t>-37,82; -3,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,35; 141,27</t>
+          <t>-49,83; -21,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C03-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>41,8</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,06</t>
+          <t>22,08</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 14,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 23,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 22,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 9,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 26,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 39,03</t>
+          <t>13,93; 77,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 7,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 15,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 24,21</t>
+          <t>6,98; 47,75</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-27,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>127,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-40,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>221,05%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-35,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>166,91%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-69,69; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,29 +816,29 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 1707,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 522,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 584,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 685,42</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>8,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 10,8</t>
+          <t>-3,12; 12,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 10,7</t>
+          <t>-3,32; 12,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 15,58</t>
+          <t>0,89; 19,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 11,73</t>
+          <t>-9,95; 4,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 13,14</t>
+          <t>-4,71; 13,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 16,63</t>
+          <t>-2,17; 16,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 9,09</t>
+          <t>-4,14; 7,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 9,84</t>
+          <t>-1,57; 10,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 13,9</t>
+          <t>1,13; 14,73</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>52,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>53,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>59,9%</t>
+          <t>110,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>-19,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>33,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,6%</t>
+          <t>58,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>41,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>58,99%</t>
+          <t>80,93%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,71; 143,44</t>
+          <t>-27,76; 236,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,44; 124,36</t>
+          <t>-28,21; 234,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 177,86</t>
+          <t>5,87; 364,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,01; 124,51</t>
+          <t>-64,8; 63,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 138,13</t>
+          <t>-33,64; 163,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 163,07</t>
+          <t>-20,95; 208,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 92,96</t>
+          <t>-32,0; 101,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 101,48</t>
+          <t>-13,49; 146,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,35; 141,27</t>
+          <t>8,34; 192,6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,48</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-9,1</t>
+          <t>-4,69</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,84</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-8,62</t>
+          <t>-0,73</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 8,16</t>
+          <t>-6,08; 9,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 5,06</t>
+          <t>-8,78; 6,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,66; -0,88</t>
+          <t>-8,82; 6,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 5,08</t>
+          <t>-7,2; 10,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,3; -2,89</t>
+          <t>-13,03; 3,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,02; -4,89</t>
+          <t>-9,7; 8,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 4,47</t>
+          <t>-3,64; 8,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,71; -0,72</t>
+          <t>-8,51; 2,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,53; -4,36</t>
+          <t>-6,6; 5,74</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,82%</t>
+          <t>-2,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-30,48%</t>
+          <t>-3,56%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,25%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-35,61%</t>
+          <t>-23,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-42,46%</t>
+          <t>-3,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-21,44%</t>
+          <t>-13,66%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-36,9%</t>
+          <t>-4,04%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 46,51</t>
+          <t>-27,22; 81,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,81; 27,93</t>
+          <t>-40,88; 52,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-50,58; -3,43</t>
+          <t>-42,56; 61,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,61; 24,08</t>
+          <t>-30,15; 73,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,26; -13,27</t>
+          <t>-52,04; 20,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,11; -22,77</t>
+          <t>-39,92; 59,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 21,5</t>
+          <t>-17,75; 56,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,82; -3,34</t>
+          <t>-39,2; 20,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,83; -21,05</t>
+          <t>-31,66; 39,7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-7,1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-6,79</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-12,17</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>0,65</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,66</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-3,75</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-3,81</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-9,55</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 6,51</t>
+          <t>-6,16; 8,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 4,66</t>
+          <t>-6,89; 9,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 3,38</t>
+          <t>-13,76; -0,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 5,29</t>
+          <t>-8,16; 8,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 1,02</t>
+          <t>-14,74; 0,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 0,54</t>
+          <t>-19,11; -4,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 4,12</t>
+          <t>-5,13; 6,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 1,81</t>
+          <t>-8,88; 2,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 0,56</t>
+          <t>-14,01; -4,78</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-9,48%</t>
+          <t>-31,99%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,47%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-18,06%</t>
+          <t>-25,5%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-18,36%</t>
+          <t>-45,68%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-7,95%</t>
+          <t>-12,15%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-14,39%</t>
+          <t>-39,22%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 43,07</t>
+          <t>-23,48; 48,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 29,7</t>
+          <t>-27,64; 50,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,07; 23,02</t>
+          <t>-53,56; -2,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 29,39</t>
+          <t>-27,05; 39,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,96; 6,31</t>
+          <t>-47,95; 5,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,96; 3,23</t>
+          <t>-61,69; -21,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 24,06</t>
+          <t>-18,73; 29,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 10,4</t>
+          <t>-32,86; 11,39</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,92; 3,05</t>
+          <t>-52,29; -21,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,66</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-3,75</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-3,81</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,52</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 5,76</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 5,02</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 2,82</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-5,03; 4,51</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-8,66; 0,95</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-8,43; 1,39</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; 4,18</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 2,09</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,79; 0,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>10,57%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-9,48%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-0,47%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-18,06%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-18,36%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4,66%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-7,95%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-14,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-15,26; 36,8</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-20,88; 33,47</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-29,77; 19,23</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-21,13; 23,79</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-37,5; 5,12</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-35,9; 7,46</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-11,92; 23,78</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-23,81; 11,42</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-28,29; 4,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP19C03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C03-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,93; 77,49</t>
+          <t>14,3; 74,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 47,75</t>
+          <t>6,9; 50,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 12,84</t>
+          <t>-2,82; 13,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 12,85</t>
+          <t>-3,35; 13,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 19,03</t>
+          <t>0,98; 19,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 4,4</t>
+          <t>-10,35; 5,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 13,14</t>
+          <t>-4,79; 12,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 16,87</t>
+          <t>-3,07; 15,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 7,58</t>
+          <t>-3,75; 7,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 10,66</t>
+          <t>-1,44; 10,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 14,73</t>
+          <t>2,07; 15,92</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,76; 236,14</t>
+          <t>-25,02; 231,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,21; 234,48</t>
+          <t>-34,21; 227,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 364,79</t>
+          <t>2,57; 340,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,8; 63,75</t>
+          <t>-67,04; 79,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 163,29</t>
+          <t>-35,44; 160,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 208,28</t>
+          <t>-23,5; 209,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,0; 101,95</t>
+          <t>-29,22; 98,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 146,22</t>
+          <t>-13,12; 135,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,34; 192,6</t>
+          <t>15,89; 220,8</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 9,8</t>
+          <t>-5,64; 11,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 6,46</t>
+          <t>-8,38; 6,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 6,96</t>
+          <t>-8,72; 7,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 10,39</t>
+          <t>-7,34; 10,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 3,02</t>
+          <t>-12,51; 3,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 8,88</t>
+          <t>-9,25; 9,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 8,45</t>
+          <t>-3,66; 7,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 2,8</t>
+          <t>-8,28; 2,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 5,74</t>
+          <t>-7,06; 4,57</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,22; 81,69</t>
+          <t>-27,55; 89,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,88; 52,12</t>
+          <t>-39,46; 56,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,56; 61,73</t>
+          <t>-42,3; 56,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,15; 73,46</t>
+          <t>-31,06; 64,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,04; 20,74</t>
+          <t>-51,44; 23,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,92; 59,3</t>
+          <t>-38,82; 58,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 56,22</t>
+          <t>-17,61; 51,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,2; 20,3</t>
+          <t>-38,14; 19,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 39,7</t>
+          <t>-32,72; 31,56</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 8,51</t>
+          <t>-6,76; 9,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 9,2</t>
+          <t>-7,23; 8,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,76; -0,47</t>
+          <t>-13,74; -0,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 8,56</t>
+          <t>-8,63; 7,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 0,87</t>
+          <t>-14,04; 0,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,11; -4,85</t>
+          <t>-19,51; -5,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 6,25</t>
+          <t>-4,86; 6,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 2,41</t>
+          <t>-9,04; 2,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,01; -4,78</t>
+          <t>-14,48; -4,04</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-23,48; 48,76</t>
+          <t>-26,53; 48,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 50,81</t>
+          <t>-28,01; 47,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-53,56; -2,63</t>
+          <t>-54,92; -1,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 39,46</t>
+          <t>-28,4; 33,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-47,95; 5,19</t>
+          <t>-46,9; 1,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-61,69; -21,26</t>
+          <t>-63,09; -22,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 29,4</t>
+          <t>-18,45; 27,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,86; 11,39</t>
+          <t>-33,74; 10,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-52,29; -21,28</t>
+          <t>-52,71; -18,53</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 5,76</t>
+          <t>-2,7; 6,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 5,02</t>
+          <t>-3,79; 5,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 2,82</t>
+          <t>-5,78; 3,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 4,51</t>
+          <t>-4,67; 4,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 0,95</t>
+          <t>-8,54; 0,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 1,39</t>
+          <t>-8,49; 1,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 4,18</t>
+          <t>-2,7; 4,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 2,09</t>
+          <t>-4,72; 1,88</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 0,73</t>
+          <t>-5,9; 0,59</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 36,8</t>
+          <t>-13,36; 42,34</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 33,47</t>
+          <t>-19,93; 34,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-29,77; 19,23</t>
+          <t>-29,5; 22,03</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 23,79</t>
+          <t>-20,34; 27,02</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-37,5; 5,12</t>
+          <t>-36,2; 5,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-35,9; 7,46</t>
+          <t>-37,8; 7,29</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 23,78</t>
+          <t>-13,42; 25,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 11,42</t>
+          <t>-22,69; 10,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-28,29; 4,47</t>
+          <t>-28,99; 3,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C03-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -642,24 +642,24 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>41,77</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>41,8</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,08</t>
+          <t>21,79</t>
         </is>
       </c>
     </row>
@@ -695,24 +695,24 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>14,78; 74,5</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>14,3; 74,9</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,9; 50,77</t>
+          <t>6,94; 49,43</t>
         </is>
       </c>
     </row>
@@ -748,22 +748,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-2,29</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6,64</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>4,75</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>4,8</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,98</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,29</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,9</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,72</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>7,96</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 13,05</t>
+          <t>-9,96; 5,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 13,48</t>
+          <t>-4,61; 13,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 19,58</t>
+          <t>-2,98; 15,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 5,51</t>
+          <t>-2,84; 14,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 12,92</t>
+          <t>-3,16; 13,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 15,75</t>
+          <t>0,59; 18,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 7,1</t>
+          <t>-3,75; 7,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 10,25</t>
+          <t>-1,3; 10,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 15,92</t>
+          <t>2,36; 15,48</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-19,87%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>33,89%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>57,69%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>52,52%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>53,08%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>110,38%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-19,87%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>33,89%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,41%</t>
+          <t>103,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>80,93%</t>
+          <t>77,31%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 231,91</t>
+          <t>-62,77; 77,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 227,14</t>
+          <t>-34,74; 176,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 340,45</t>
+          <t>-20,22; 206,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-67,04; 79,41</t>
+          <t>-25,91; 264,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,44; 160,55</t>
+          <t>-28,06; 252,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 209,71</t>
+          <t>-0,65; 354,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 98,62</t>
+          <t>-29,57; 107,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 135,58</t>
+          <t>-11,09; 141,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,89; 220,8</t>
+          <t>18,08; 208,2</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-4,69</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>2,65</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-0,36</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-4,69</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>0,31</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 11,1</t>
+          <t>-7,28; 9,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 6,82</t>
+          <t>-12,35; 2,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 7,13</t>
+          <t>-8,89; 11,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 10,51</t>
+          <t>-5,82; 10,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 3,52</t>
+          <t>-8,29; 7,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 9,17</t>
+          <t>-7,55; 9,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 7,72</t>
+          <t>-3,7; 7,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 2,85</t>
+          <t>-8,39; 3,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 4,57</t>
+          <t>-6,24; 6,97</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-23,81%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>15,89%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-2,18%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-3,56%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,07%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-23,81%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,13%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,04%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,55; 89,19</t>
+          <t>-31,21; 63,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,46; 56,87</t>
+          <t>-51,05; 19,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,3; 56,29</t>
+          <t>-38,55; 66,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 64,34</t>
+          <t>-28,55; 92,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,44; 23,67</t>
+          <t>-37,88; 59,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,82; 58,13</t>
+          <t>-36,93; 79,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 51,99</t>
+          <t>-18,11; 50,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,14; 19,46</t>
+          <t>-38,87; 25,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 31,56</t>
+          <t>-30,18; 46,41</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-6,79</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-11,58</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,99</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-7,1</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-6,79</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-12,17</t>
+          <t>-6,85</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-9,55</t>
+          <t>-9,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 9,24</t>
+          <t>-7,42; 8,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 8,92</t>
+          <t>-15,4; 1,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,74; -0,2</t>
+          <t>-19,08; -4,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 7,96</t>
+          <t>-6,72; 8,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 0,25</t>
+          <t>-6,82; 8,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,51; -5,28</t>
+          <t>-13,94; 0,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 6,01</t>
+          <t>-5,28; 6,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 2,11</t>
+          <t>-8,32; 2,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,48; -4,04</t>
+          <t>-13,91; -4,38</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-25,5%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-43,48%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>4,47%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>3,81%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-31,99%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-25,5%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-45,68%</t>
+          <t>-30,86%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-39,22%</t>
+          <t>-37,52%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,53; 48,69</t>
+          <t>-24,58; 38,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 47,99</t>
+          <t>-49,35; 4,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,92; -1,47</t>
+          <t>-61,58; -19,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,4; 33,56</t>
+          <t>-27,28; 43,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 1,15</t>
+          <t>-27,38; 46,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-63,09; -22,26</t>
+          <t>-54,68; 0,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 27,42</t>
+          <t>-19,19; 30,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,74; 10,11</t>
+          <t>-31,24; 12,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-52,71; -18,53</t>
+          <t>-52,18; -18,95</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-3,75</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-3,15</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>1,85</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>0,65</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,66</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-3,75</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-2,26</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 6,32</t>
+          <t>-5,0; 5,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 5,57</t>
+          <t>-8,38; 1,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 3,23</t>
+          <t>-7,88; 1,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 4,81</t>
+          <t>-3,23; 6,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 0,89</t>
+          <t>-3,74; 4,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 1,28</t>
+          <t>-5,72; 3,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 4,42</t>
+          <t>-2,32; 4,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 1,88</t>
+          <t>-4,76; 1,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 0,59</t>
+          <t>-5,58; 0,9</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-0,47%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-18,06%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-15,17%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>10,57%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>3,69%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-9,48%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-0,47%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-18,06%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-18,36%</t>
+          <t>-7,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-14,39%</t>
+          <t>-11,83%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 42,34</t>
+          <t>-22,88; 29,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 34,56</t>
+          <t>-35,96; 6,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-29,5; 22,03</t>
+          <t>-33,46; 6,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-20,34; 27,02</t>
+          <t>-16,11; 43,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-36,2; 5,38</t>
+          <t>-18,81; 29,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-37,8; 7,29</t>
+          <t>-28,74; 25,27</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 25,43</t>
+          <t>-11,1; 24,06</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 10,77</t>
+          <t>-22,96; 10,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-28,99; 3,22</t>
+          <t>-27,14; 5,49</t>
         </is>
       </c>
     </row>
